--- a/data/2023年第二代美国白蛾调查表.xlsx
+++ b/data/2023年第二代美国白蛾调查表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="417">
   <si>
     <t>调查日期</t>
   </si>
@@ -587,6 +587,684 @@
   </si>
   <si>
     <t>东潞苑西1区</t>
+  </si>
+  <si>
+    <t>TY02</t>
+  </si>
+  <si>
+    <t>牡丹园</t>
+  </si>
+  <si>
+    <t>9号99单元门口北停车位；28楼南</t>
+  </si>
+  <si>
+    <t>白蜡 2</t>
+  </si>
+  <si>
+    <t>牡丹园，9号99单元门口北停车位处，白蜡1棵。网幕3处，已处理；28号楼南，白蜡1棵，卵块1处，已处理，建议防治。</t>
+  </si>
+  <si>
+    <t>ZC35</t>
+  </si>
+  <si>
+    <t>新城东里小区</t>
+  </si>
+  <si>
+    <t>YQ16</t>
+  </si>
+  <si>
+    <t>艺苑东街小区北区</t>
+  </si>
+  <si>
+    <t>YQ17</t>
+  </si>
+  <si>
+    <t>艺苑东里</t>
+  </si>
+  <si>
+    <t>YQ18</t>
+  </si>
+  <si>
+    <t>艺苑东街小区南区</t>
+  </si>
+  <si>
+    <t>YQ19</t>
+  </si>
+  <si>
+    <t>艺苑东街8号院</t>
+  </si>
+  <si>
+    <t>YQ20</t>
+  </si>
+  <si>
+    <t>艺苑西里</t>
+  </si>
+  <si>
+    <t>YQ21</t>
+  </si>
+  <si>
+    <t>玉桥西路37号院</t>
+  </si>
+  <si>
+    <t>YQ22</t>
+  </si>
+  <si>
+    <t>艺苑西街7号院</t>
+  </si>
+  <si>
+    <t>YQ23</t>
+  </si>
+  <si>
+    <t>运河西大街115号院</t>
+  </si>
+  <si>
+    <t>YQ24</t>
+  </si>
+  <si>
+    <t>运河西大街137号院</t>
+  </si>
+  <si>
+    <t>YQ25</t>
+  </si>
+  <si>
+    <t>运河西大街155号院</t>
+  </si>
+  <si>
+    <t>杨庄街道</t>
+  </si>
+  <si>
+    <t>YZ24</t>
+  </si>
+  <si>
+    <t>京贸国际公馆</t>
+  </si>
+  <si>
+    <t>YZ16</t>
+  </si>
+  <si>
+    <t>通州区八里桥南街小区 62 号院</t>
+  </si>
+  <si>
+    <t>YZ17</t>
+  </si>
+  <si>
+    <t>京贸国际公寓</t>
+  </si>
+  <si>
+    <t>YZ04</t>
+  </si>
+  <si>
+    <t>鑫苑小区</t>
+  </si>
+  <si>
+    <t>YZ09</t>
+  </si>
+  <si>
+    <t>天时名苑</t>
+  </si>
+  <si>
+    <t>YQ26</t>
+  </si>
+  <si>
+    <t>葛布店北里小区</t>
+  </si>
+  <si>
+    <t>YQ27</t>
+  </si>
+  <si>
+    <t>蓝山国际公寓</t>
+  </si>
+  <si>
+    <t>YQ28</t>
+  </si>
+  <si>
+    <t>葛布店北里北区</t>
+  </si>
+  <si>
+    <t>北苑街道</t>
+  </si>
+  <si>
+    <t>BY40</t>
+  </si>
+  <si>
+    <t>新华南路153号院</t>
+  </si>
+  <si>
+    <t>BY41</t>
+  </si>
+  <si>
+    <t>果园小区北区</t>
+  </si>
+  <si>
+    <t>BY42</t>
+  </si>
+  <si>
+    <t>果园西小区</t>
+  </si>
+  <si>
+    <t>BY48</t>
+  </si>
+  <si>
+    <t>果园233号院</t>
+  </si>
+  <si>
+    <t>永顺镇</t>
+  </si>
+  <si>
+    <t>YS11</t>
+  </si>
+  <si>
+    <t>富力惠兰美居C区</t>
+  </si>
+  <si>
+    <t>YS12</t>
+  </si>
+  <si>
+    <t>李庄佳苑南区</t>
+  </si>
+  <si>
+    <t>YS13</t>
+  </si>
+  <si>
+    <t>李庄佳苑北区</t>
+  </si>
+  <si>
+    <t>YS14</t>
+  </si>
+  <si>
+    <t>东潞苑北区</t>
+  </si>
+  <si>
+    <t>LYI10</t>
+  </si>
+  <si>
+    <t>东潞苑南区</t>
+  </si>
+  <si>
+    <t>LYI11</t>
+  </si>
+  <si>
+    <t>苏坨新村</t>
+  </si>
+  <si>
+    <t>YS02</t>
+  </si>
+  <si>
+    <t>新地国际家园</t>
+  </si>
+  <si>
+    <t>YS03</t>
+  </si>
+  <si>
+    <t>金地格林格林6号院</t>
+  </si>
+  <si>
+    <t>YS04</t>
+  </si>
+  <si>
+    <t>金地格林格林北区</t>
+  </si>
+  <si>
+    <t>YS05</t>
+  </si>
+  <si>
+    <t>翠福园</t>
+  </si>
+  <si>
+    <t>YS06</t>
+  </si>
+  <si>
+    <t>朝北8080</t>
+  </si>
+  <si>
+    <t>TY17</t>
+  </si>
+  <si>
+    <t>紫运园</t>
+  </si>
+  <si>
+    <t>TY03</t>
+  </si>
+  <si>
+    <t>紫荆园</t>
+  </si>
+  <si>
+    <t>TY04</t>
+  </si>
+  <si>
+    <t>月季园</t>
+  </si>
+  <si>
+    <t>TY12</t>
+  </si>
+  <si>
+    <t>水仙园</t>
+  </si>
+  <si>
+    <t>TY13</t>
+  </si>
+  <si>
+    <t>三元村</t>
+  </si>
+  <si>
+    <t>TY15</t>
+  </si>
+  <si>
+    <t>古城小区</t>
+  </si>
+  <si>
+    <t>TY16</t>
+  </si>
+  <si>
+    <t>荔景园</t>
+  </si>
+  <si>
+    <t>永于路</t>
+  </si>
+  <si>
+    <t>北辛店路</t>
+  </si>
+  <si>
+    <t>东神路</t>
+  </si>
+  <si>
+    <t>北辛店北路</t>
+  </si>
+  <si>
+    <t>南仪阁路</t>
+  </si>
+  <si>
+    <t>丁南路</t>
+  </si>
+  <si>
+    <t>王南路</t>
+  </si>
+  <si>
+    <t>付各庄路</t>
+  </si>
+  <si>
+    <t>付各庄东路</t>
+  </si>
+  <si>
+    <t>渠头一路</t>
+  </si>
+  <si>
+    <t>渠头二路</t>
+  </si>
+  <si>
+    <t>渠头路</t>
+  </si>
+  <si>
+    <t>渠头三路</t>
+  </si>
+  <si>
+    <t>王小路</t>
+  </si>
+  <si>
+    <t>崔各庄路</t>
+  </si>
+  <si>
+    <t>大德路</t>
+  </si>
+  <si>
+    <t>三德路</t>
+  </si>
+  <si>
+    <t>漷小路</t>
+  </si>
+  <si>
+    <t>南堤寺路</t>
+  </si>
+  <si>
+    <t>南堤寺东路</t>
+  </si>
+  <si>
+    <t>三北路</t>
+  </si>
+  <si>
+    <t>王南路支线</t>
+  </si>
+  <si>
+    <t>漷东路</t>
+  </si>
+  <si>
+    <t>永黄路</t>
+  </si>
+  <si>
+    <t>北内环路</t>
+  </si>
+  <si>
+    <t>一号路</t>
+  </si>
+  <si>
+    <t>永乐路</t>
+  </si>
+  <si>
+    <t>大羊南路</t>
+  </si>
+  <si>
+    <t>永德路</t>
+  </si>
+  <si>
+    <t>凤德路</t>
+  </si>
+  <si>
+    <t>柴胡路</t>
+  </si>
+  <si>
+    <t>柴觅路</t>
+  </si>
+  <si>
+    <t>柴厂屯路</t>
+  </si>
+  <si>
+    <t>胡村路</t>
+  </si>
+  <si>
+    <t>觅临路</t>
+  </si>
+  <si>
+    <t>临沟屯路</t>
+  </si>
+  <si>
+    <t>敖临路</t>
+  </si>
+  <si>
+    <t>敖硝营路</t>
+  </si>
+  <si>
+    <t>新华街道</t>
+  </si>
+  <si>
+    <t>XH04</t>
+  </si>
+  <si>
+    <t>加华印象街</t>
+  </si>
+  <si>
+    <t>加华印象街，205号楼2单元门口东侧</t>
+  </si>
+  <si>
+    <t>桑树 1</t>
+  </si>
+  <si>
+    <t>加华印象街，205号楼2单元门口东侧，桑树1棵，网幕 2 处，已处理，建议防治。</t>
+  </si>
+  <si>
+    <t>YS08</t>
+  </si>
+  <si>
+    <t>西潞苑小区</t>
+  </si>
+  <si>
+    <t>西潞苑小区，34号楼2单元楼北；31号楼东侧</t>
+  </si>
+  <si>
+    <t>白蜡 2，桑树 1</t>
+  </si>
+  <si>
+    <t>西潞苑小区，34号楼2单元楼北，白蜡2棵，网幕3处，已处理；31号楼东侧，桑树1棵，卵块3处，已处理，建议防治。</t>
+  </si>
+  <si>
+    <t>YZ03</t>
+  </si>
+  <si>
+    <t>世纪星城</t>
+  </si>
+  <si>
+    <t>世纪星城，87号楼3单元门口；81号楼北</t>
+  </si>
+  <si>
+    <t>黄栌1，白梣2</t>
+  </si>
+  <si>
+    <t>世纪星城，87号楼3单元门口，黄栌1棵，网幕2处，已剪除；81号楼北，白梣2棵，网幕8处，已剪除，建议防治。</t>
+  </si>
+  <si>
+    <t>LYI31</t>
+  </si>
+  <si>
+    <t>孙各庄新村</t>
+  </si>
+  <si>
+    <t>XH01</t>
+  </si>
+  <si>
+    <t>月亮河七星公馆</t>
+  </si>
+  <si>
+    <t>XH02</t>
+  </si>
+  <si>
+    <t>月亮河城堡公寓</t>
+  </si>
+  <si>
+    <t>XH03</t>
+  </si>
+  <si>
+    <t>京贸国际城</t>
+  </si>
+  <si>
+    <t>LYI12</t>
+  </si>
+  <si>
+    <t>东潞苑东2区</t>
+  </si>
+  <si>
+    <t>LYI14</t>
+  </si>
+  <si>
+    <t>珠江·拉维小镇</t>
+  </si>
+  <si>
+    <t>LYI15</t>
+  </si>
+  <si>
+    <t>通瑞嘉苑</t>
+  </si>
+  <si>
+    <t>LYI16</t>
+  </si>
+  <si>
+    <t>至善家园</t>
+  </si>
+  <si>
+    <t>YS01</t>
+  </si>
+  <si>
+    <t>阳光金融城</t>
+  </si>
+  <si>
+    <t>YS07</t>
+  </si>
+  <si>
+    <t>房地远洋悦山水</t>
+  </si>
+  <si>
+    <t>YS09</t>
+  </si>
+  <si>
+    <t>华隆公寓A区</t>
+  </si>
+  <si>
+    <t>TY05</t>
+  </si>
+  <si>
+    <t>水晶恋城</t>
+  </si>
+  <si>
+    <t>TY06</t>
+  </si>
+  <si>
+    <t>通胡大街15号院</t>
+  </si>
+  <si>
+    <t>XH05</t>
+  </si>
+  <si>
+    <t>河畔丽景</t>
+  </si>
+  <si>
+    <t>TY07</t>
+  </si>
+  <si>
+    <t>运河家园</t>
+  </si>
+  <si>
+    <t>TY08</t>
+  </si>
+  <si>
+    <t>运河园</t>
+  </si>
+  <si>
+    <t>TY09</t>
+  </si>
+  <si>
+    <t>通胡大街82号院</t>
+  </si>
+  <si>
+    <t>TY10</t>
+  </si>
+  <si>
+    <t>K2百合湾</t>
+  </si>
+  <si>
+    <t>TY11</t>
+  </si>
+  <si>
+    <t>运河园路8号院</t>
+  </si>
+  <si>
+    <t>YZ15</t>
+  </si>
+  <si>
+    <t>新华联锦园</t>
+  </si>
+  <si>
+    <t>YZ07</t>
+  </si>
+  <si>
+    <t>杨庄小区</t>
+  </si>
+  <si>
+    <t>YZ35</t>
+  </si>
+  <si>
+    <t>杨庄路22号院</t>
+  </si>
+  <si>
+    <t>YZ18</t>
+  </si>
+  <si>
+    <t>李老新村</t>
+  </si>
+  <si>
+    <t>YZ19</t>
+  </si>
+  <si>
+    <t>通州区怡乐园一区北机</t>
+  </si>
+  <si>
+    <t>YZ20</t>
+  </si>
+  <si>
+    <t>挂车厂小区</t>
+  </si>
+  <si>
+    <t>YZ21</t>
+  </si>
+  <si>
+    <t>新华联家园南区</t>
+  </si>
+  <si>
+    <t>BY53</t>
+  </si>
+  <si>
+    <t>雅丽世居小区</t>
+  </si>
+  <si>
+    <t>YZ05</t>
+  </si>
+  <si>
+    <t>科印小区</t>
+  </si>
+  <si>
+    <t>YZ06</t>
+  </si>
+  <si>
+    <t>广通小区</t>
+  </si>
+  <si>
+    <t>YZ08</t>
+  </si>
+  <si>
+    <t>杨庄北街1号院</t>
+  </si>
+  <si>
+    <t>YZ10</t>
+  </si>
+  <si>
+    <t>杨庄北街19号院</t>
+  </si>
+  <si>
+    <t>YZ11</t>
+  </si>
+  <si>
+    <t>芳洲花园</t>
+  </si>
+  <si>
+    <t>YZ12</t>
+  </si>
+  <si>
+    <t>朗峰嘉园</t>
+  </si>
+  <si>
+    <t>YZ13</t>
+  </si>
+  <si>
+    <t>华兴园</t>
+  </si>
+  <si>
+    <t>YZ28</t>
+  </si>
+  <si>
+    <t>京铁潞园</t>
+  </si>
+  <si>
+    <t>YZ27</t>
+  </si>
+  <si>
+    <t>杨庄路41号院</t>
+  </si>
+  <si>
+    <t>YZ14</t>
+  </si>
+  <si>
+    <t>西果园1期</t>
+  </si>
+  <si>
+    <t>东马各庄村东口</t>
+  </si>
+  <si>
+    <t>东马各庄村</t>
+  </si>
+  <si>
+    <t>东马各庄村西</t>
+  </si>
+  <si>
+    <t>230国道通武线</t>
+  </si>
+  <si>
+    <t>中心西一路</t>
+  </si>
+  <si>
+    <t>崔果路</t>
+  </si>
+  <si>
+    <t>崔各庄支路</t>
+  </si>
+  <si>
+    <t>东西垡支路</t>
   </si>
 </sst>
 </file>
@@ -594,12 +1272,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -617,10 +1295,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +1312,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,15 +1341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,15 +1358,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,23 +1397,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +1405,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,26 +1432,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -770,13 +1448,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,79 +1568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,49 +1586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +1604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +1616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,8 +1645,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,32 +1693,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,17 +1721,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,152 +1744,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,29 +1902,14 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1409,8 +2072,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R102">
-  <autoFilter ref="A1:R102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R242">
+  <autoFilter ref="A1:R242"/>
   <tableColumns count="18">
     <tableColumn id="1" name="调查日期" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="区域" dataDxfId="1"/>
@@ -1693,12 +2356,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D224" sqref="D224:D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.76923076923077" defaultRowHeight="17.6"/>
@@ -1725,115 +2388,115 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="5">
-        <v>45125</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="4">
+        <v>45125</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="3">
         <v>45125.3888888889</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="7">
         <v>45126</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="18" spans="1:17">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>45125</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1872,18 +2535,18 @@
       <c r="N3" s="3">
         <v>45125.4486111111</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="7">
         <v>45126</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:17">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>45125</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1925,15 +2588,15 @@
       <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="7">
         <v>45126</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:17">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>45125</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1948,7 +2611,7 @@
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1972,18 +2635,18 @@
       <c r="N5" s="3">
         <v>45125.4756944444</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="7">
         <v>45126</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:17">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>45125</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2001,7 +2664,7 @@
       <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2025,15 +2688,15 @@
       <c r="O6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="7">
         <v>45126</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:17">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>45125</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2075,21 +2738,21 @@
       <c r="O7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="7">
         <v>45126</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>45125</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2109,13 +2772,13 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>45125</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2135,13 +2798,13 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>45125</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2161,13 +2824,13 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>45125</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2187,13 +2850,13 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>45125</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2213,13 +2876,13 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>45125</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2239,13 +2902,13 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>45125</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2265,13 +2928,13 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>45125</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2291,13 +2954,13 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>45125</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2317,13 +2980,13 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>45125</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2343,13 +3006,13 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>45125</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2369,13 +3032,13 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>45125</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2395,13 +3058,13 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>45125</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2421,13 +3084,13 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>45125</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2447,13 +3110,13 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>45125</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2473,13 +3136,13 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>45125</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2499,13 +3162,13 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>45125</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2525,13 +3188,13 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>45125</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2551,13 +3214,13 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>45125</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2577,13 +3240,13 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>45125</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2603,13 +3266,13 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>45125</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2629,13 +3292,13 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>45125</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2655,13 +3318,13 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>45125</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2681,13 +3344,13 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>45125</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2707,13 +3370,13 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>45125</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2733,7 +3396,7 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>45125</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2759,7 +3422,7 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>45125</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2785,7 +3448,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>45125</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2811,7 +3474,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>45125</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2837,7 +3500,7 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>45125</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2863,7 +3526,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>45125</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2889,7 +3552,7 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>45125</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2915,7 +3578,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>45125</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2941,7 +3604,7 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>45125</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2967,7 +3630,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>45125</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2993,7 +3656,7 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>45125</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3019,7 +3682,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>45125</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3045,7 +3708,7 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>45125</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3071,7 +3734,7 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45125</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3097,7 +3760,7 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>45125</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3123,7 +3786,7 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>45125</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3149,7 +3812,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45125</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3175,7 +3838,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45125</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3201,7 +3864,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>45125</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3227,7 +3890,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>45125</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3253,7 +3916,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>45125</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3279,7 +3942,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>45125</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3305,7 +3968,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>45125</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3331,7 +3994,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>45125</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3357,7 +4020,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>45125</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3383,7 +4046,7 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>45125</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3409,7 +4072,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>45125</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3435,7 +4098,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>45125</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3461,7 +4124,7 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>45125</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3487,7 +4150,7 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>45125</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3513,7 +4176,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>45125</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3539,7 +4202,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>45125</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3565,7 +4228,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>45125</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3591,7 +4254,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>45125</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3617,7 +4280,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>45125</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3643,7 +4306,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>45125</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3669,7 +4332,7 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>45125</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3695,7 +4358,7 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>45125</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3721,7 +4384,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>45125</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3747,7 +4410,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>45125</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3773,7 +4436,7 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>45125</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3799,7 +4462,7 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>45125</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3825,7 +4488,7 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>45125</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3851,7 +4514,7 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>45125</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3877,7 +4540,7 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>45125</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3903,7 +4566,7 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>45125</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3929,7 +4592,7 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>45125</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3955,7 +4618,7 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>45125</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3981,7 +4644,7 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>45125</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4007,7 +4670,7 @@
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>45125</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4033,7 +4696,7 @@
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>45125</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4059,7 +4722,7 @@
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>45125</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4085,7 +4748,7 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>45125</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4111,7 +4774,7 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>45125</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4137,7 +4800,7 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>45125</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4163,7 +4826,7 @@
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>45125</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4189,7 +4852,7 @@
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>45125</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4215,7 +4878,7 @@
       </c>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>45125</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4241,7 +4904,7 @@
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>45125</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4267,7 +4930,7 @@
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>45125</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4293,7 +4956,7 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>45125</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4319,7 +4982,7 @@
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>45125</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4345,7 +5008,7 @@
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>45125</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4371,7 +5034,7 @@
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>45125</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4397,7 +5060,7 @@
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>45125</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4423,7 +5086,7 @@
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>45125</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4449,7 +5112,7 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>45125</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4475,7 +5138,7 @@
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>45125</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -4501,7 +5164,7 @@
       </c>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>45125</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4527,7 +5190,7 @@
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>45125</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4552,9 +5215,3745 @@
         <v>55</v>
       </c>
     </row>
+    <row r="103" ht="36" spans="1:17">
+      <c r="A103" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>4</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="3">
+        <v>45126.4044791667</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+      <c r="J182" s="1">
+        <v>0</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" ht="36" spans="1:17">
+      <c r="A184" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J184" s="1">
+        <v>2</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N184" s="3">
+        <v>45127.404537037</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q184" s="4">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="185" ht="36" spans="1:17">
+      <c r="A185" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I185" s="1">
+        <v>3</v>
+      </c>
+      <c r="J185" s="1">
+        <v>6</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N185" s="3">
+        <v>45127.673287037</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q185" s="4">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="186" ht="36" spans="1:17">
+      <c r="A186" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I186" s="1">
+        <v>3</v>
+      </c>
+      <c r="J186" s="1">
+        <v>10</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N186" s="3">
+        <v>45127.6739814815</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q186" s="4">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1">
+        <v>0</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>0</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+      <c r="J193" s="1">
+        <v>0</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+      <c r="J204" s="1">
+        <v>0</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>0</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>0</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
+      <c r="A209" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>0</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
+      <c r="A210" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>0</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
+      <c r="A211" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
+      <c r="A212" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>0</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>0</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
+      <c r="A215" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16">
+      <c r="A216" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>0</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
+      <c r="A217" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>0</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="A219" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
+      <c r="A220" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="A221" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>0</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="A222" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>0</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
+      <c r="A223" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>0</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
+      <c r="A224" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>0</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16">
+      <c r="A225" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>0</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
+      <c r="A226" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>0</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="A227" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>0</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
+      <c r="A228" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>0</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
+      <c r="A229" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
+      <c r="A230" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16">
+      <c r="A231" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>0</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>0</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="A233" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="A234" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+      <c r="J234" s="1">
+        <v>0</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="A235" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
+      <c r="A236" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+      <c r="J236" s="1">
+        <v>0</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
+      <c r="A237" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>0</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="A238" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+      <c r="J238" s="1">
+        <v>0</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
+      <c r="A239" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>0</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
+      <c r="A240" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+      <c r="J240" s="1">
+        <v>0</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16">
+      <c r="A241" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>0</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
+      <c r="A242" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+      <c r="J242" s="1">
+        <v>0</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B7 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B2:B4 B5:B6 B8:B30 B103:B1048576 C64:C68 C75:C83"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B7 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B127 B128 B129 B130 B133 B134 B135 B136 B137 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B2:B4 B5:B6 B8:B30 B103:B126 B131:B132 B138:B144 B145:B183 B224:B242 B243:B1048576 C64:C68 C75:C83"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
